--- a/xlsx/大使馆_intext.xlsx
+++ b/xlsx/大使馆_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E9%A7%90%E5%A4%96%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>德國駐外機構列表</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_大使馆</t>
+    <t>德国驻外机构列表</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_大使馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E9%A7%90%E5%A4%96%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>瑞典駐外機構列表</t>
+    <t>瑞典驻外机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7%E5%A4%A7%E4%BD%BF%E9%A6%86</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%BB%E5%A4%96%E6%B3%95%E6%AC%8A</t>
   </si>
   <si>
-    <t>治外法權</t>
+    <t>治外法权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D%E5%A4%96%E4%BA%A4%E9%97%9C%E4%BF%82%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>維也納外交關係公約</t>
+    <t>维也纳外交关系公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A7%90%E8%8B%B1%E5%9C%8B%E5%A4%A7%E4%BD%BF%E9%A4%A8</t>
   </si>
   <si>
-    <t>美國駐英國大使館</t>
+    <t>美国驻英国大使馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3%E4%BC%9A%E8%AE%AE</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%91%BD%E5%85%A8%E6%AC%8A%E5%85%AC%E4%BD%BF</t>
   </si>
   <si>
-    <t>特命全權公使</t>
+    <t>特命全权公使</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E5%8A%9E</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E8%B1%81%E5%85%8D%E6%AC%8A</t>
   </si>
   <si>
-    <t>外交豁免權</t>
+    <t>外交豁免权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E5%A4%96%E6%AD%A6%E5%AE%98</t>
   </si>
   <si>
-    <t>駐外武官</t>
+    <t>驻外武官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E8%B5%9E</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A7%90%E9%A6%99%E6%B8%AF%E5%8F%8A%E6%BE%B3%E9%96%80%E7%B8%BD%E9%A0%98%E4%BA%8B%E9%A4%A8</t>
   </si>
   <si>
-    <t>美國駐香港及澳門總領事館</t>
+    <t>美国驻香港及澳门总领事馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E4%BA%8B</t>
   </si>
   <si>
-    <t>領事</t>
+    <t>领事</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Embassy_of_the_United_Kingdom,_Washington,_D.C.</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%96%AF%E6%95%A6</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E6%AD%90%E6%B4%B2%E8%AD%B0%E6%9C%83%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2014年歐洲議會選舉</t>
+    <t>2014年欧洲议会选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E8%B3%AA%E5%A4%A7%E4%BD%BF%E9%A4%A8</t>
   </si>
   <si>
-    <t>實質大使館</t>
+    <t>实质大使馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%80%E5%84%A1%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>傀儡政權</t>
+    <t>傀儡政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>北賽普勒斯</t>
+    <t>北赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C%E5%85%B0</t>
@@ -341,25 +341,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%88%88%E7%88%BE%E8%AB%BE-%E5%8A%A0%E6%8B%89%E5%B7%B4%E8%B5%AB</t>
   </si>
   <si>
-    <t>納戈爾諾-加拉巴赫</t>
+    <t>纳戈尔诺-加拉巴赫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97%E7%B6%93%E6%BF%9F%E6%96%87%E5%8C%96%E4%BB%A3%E8%A1%A8%E8%99%95</t>
   </si>
   <si>
-    <t>臺北經濟文化代表處</t>
+    <t>台北经济文化代表处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%9C%8B%E9%A7%90%E5%8F%B0%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>外國駐台機構</t>
+    <t>外国驻台机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -383,19 +383,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%A4%96%E4%BA%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>中華民國外交部</t>
+    <t>中华民国外交部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%BE%E8%AF%81</t>
@@ -431,31 +431,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E8%AD%B7%E7%85%A7</t>
   </si>
   <si>
-    <t>中華民國護照</t>
+    <t>中华民国护照</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97%E5%B8%82</t>
   </si>
   <si>
-    <t>臺北市</t>
+    <t>台北市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AB%E6%9E%97%E5%8D%80</t>
   </si>
   <si>
-    <t>士林區</t>
+    <t>士林区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8A%E7%89%8C</t>
   </si>
   <si>
-    <t>車牌</t>
+    <t>车牌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>中華民國憲法</t>
+    <t>中华民国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9C%B0%E6%96%B9</t>
@@ -467,19 +467,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%B0%E5%8D%80%E8%88%87%E5%A4%A7%E9%99%B8%E5%9C%B0%E5%8D%80%E4%BA%BA%E6%B0%91%E9%97%9C%E4%BF%82%E6%A2%9D%E4%BE%8B</t>
   </si>
   <si>
-    <t>臺灣地區與大陸地區人民關係條例</t>
+    <t>台湾地区与大陆地区人民关系条例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9C%8B</t>
   </si>
   <si>
-    <t>蒙古國</t>
+    <t>蒙古国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E5%A4%A7%E9%99%B8%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>行政院大陸委員會</t>
+    <t>行政院大陆委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E8%97%8F%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>蒙藏委員會</t>
+    <t>蒙藏委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B0%E5%B7%B4%E6%89%98</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E6%A9%A1%E5%9C%92</t>
   </si>
   <si>
-    <t>雙橡園</t>
+    <t>双橡园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國安全理事會</t>
+    <t>联合国安全理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B9%8B%E6%98%A5</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4%E5%88%A9%E6%AF%94%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>2011年利比亞內戰</t>
+    <t>2011年利比亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%8A%A0%E8%A5%BF</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>北大西洋公約組織</t>
+    <t>北大西洋公约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%84%E9%BB%8E%E6%B3%A2%E9%87%8C</t>
@@ -611,19 +611,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>中華民國政府</t>
+    <t>中华民国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E4%BB%BB%E6%89%80%E5%A4%A7%E4%BD%BF</t>
   </si>
   <si>
-    <t>無任所大使</t>
+    <t>无任所大使</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Konsularagentur</t>
